--- a/acm/rules/drools-transcribe-business-process-rules.xlsx
+++ b/acm/rules/drools-transcribe-business-process-rules.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riste.tutureski\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladimir.cherepnalko\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3F9311-6BCC-423D-9696-F3AEA22F9715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="997"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,13 +124,7 @@
     <t>Name of business process to start (must be an Activiti process name)</t>
   </si>
   <si>
-    <t>com.armedia.acm.services.transcribe.model.TranscribeBusinessProcessModel</t>
-  </si>
-  <si>
     <t>Transcribe Workflow Rules</t>
-  </si>
-  <si>
-    <t>$model: TranscribeBusinessProcessModel</t>
   </si>
   <si>
     <t>RuleTable Transcribe Workflow Rules</t>
@@ -196,16 +191,22 @@
     <t>type == 'MANUAL'</t>
   </si>
   <si>
-    <t>TranscribeWorkflow</t>
-  </si>
-  <si>
     <t>eval(evalSpring("$param", $model))</t>
+  </si>
+  <si>
+    <t>com.armedia.acm.services.mediaengine.model.MediaEngineBusinessProcessModel</t>
+  </si>
+  <si>
+    <t>MediaEngineWorkFlow</t>
+  </si>
+  <si>
+    <t>$model: MediaEngineBusinessProcessModel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -1084,29 +1085,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="A12:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875"/>
-    <col min="2" max="2" width="24.28515625"/>
-    <col min="3" max="3" width="69.5703125"/>
-    <col min="4" max="4" width="70.7109375"/>
-    <col min="5" max="5" width="35.7109375"/>
-    <col min="6" max="6" width="24.140625"/>
-    <col min="7" max="7" width="35.5703125"/>
-    <col min="8" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="14.88671875"/>
+    <col min="2" max="2" width="24.33203125"/>
+    <col min="3" max="3" width="69.5546875"/>
+    <col min="4" max="4" width="70.6640625"/>
+    <col min="5" max="5" width="35.6640625"/>
+    <col min="6" max="6" width="24.109375"/>
+    <col min="7" max="7" width="35.5546875"/>
+    <col min="8" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1115,93 +1116,93 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="7" t="s">
@@ -1214,7 +1215,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1223,16 +1224,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
@@ -1245,29 +1246,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>8</v>
@@ -1284,13 +1285,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>3</v>
@@ -1301,13 +1302,13 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>3</v>
@@ -1327,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1335,9 +1336,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1025" width="8.6640625"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1346,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1354,9 +1355,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1025" width="8.6640625"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/acm/rules/drools-transcribe-business-process-rules.xlsx
+++ b/acm/rules/drools-transcribe-business-process-rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF3B68-9BC4-4ACA-87A9-F8C7A8226E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28B08CD-C77E-42F6-8F44-A1B304F59870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
